--- a/squad-qametric-traindata.xlsx
+++ b/squad-qametric-traindata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\3.tik\datasets\new\new\new\lastdataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\mythesis\qametrichub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7EF65A-3F14-4631-B8AC-21447A13AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981F946-8606-4A4C-ACE3-E6CA8132B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6039" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="1906">
   <si>
     <t>contexts</t>
   </si>
@@ -5746,34 +5746,40 @@
     <t>emotional</t>
   </si>
   <si>
-    <t>meaning_nor</t>
-  </si>
-  <si>
-    <t>common_theme_nor</t>
-  </si>
-  <si>
-    <t>persuasion_nor</t>
-  </si>
-  <si>
-    <t>believability_nor</t>
-  </si>
-  <si>
-    <t>informative_nor</t>
-  </si>
-  <si>
-    <t>objective_nor</t>
-  </si>
-  <si>
-    <t>expression_nor</t>
-  </si>
-  <si>
-    <t>emotional_nor</t>
-  </si>
-  <si>
     <t>score_mean</t>
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>meaning_mean</t>
+  </si>
+  <si>
+    <t>common_theme_mean</t>
+  </si>
+  <si>
+    <t>persuasion_mean</t>
+  </si>
+  <si>
+    <t>believability_mean</t>
+  </si>
+  <si>
+    <t>informative_mean</t>
+  </si>
+  <si>
+    <t>objective_mean</t>
+  </si>
+  <si>
+    <t>expression_mean</t>
+  </si>
+  <si>
+    <t>emotional_mean</t>
+  </si>
+  <si>
+    <t>mistral_score</t>
+  </si>
+  <si>
+    <t>bleu2</t>
   </si>
 </sst>
 </file>
@@ -5808,7 +5814,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5831,27 +5837,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6295,15 +6287,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB502"/>
+  <dimension ref="A1:AD502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6341,55 +6333,61 @@
         <v>1893</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>1894</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1902</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>5</v>
+        <v>1904</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1158</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>398</v>
       </c>
@@ -6561,7 +6559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -6647,7 +6645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1368</v>
       </c>
@@ -6733,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1038</v>
       </c>
@@ -6819,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>581</v>
       </c>
@@ -6905,7 +6903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1121</v>
       </c>
@@ -6991,7 +6989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1360</v>
       </c>
@@ -7077,7 +7075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1344</v>
       </c>
@@ -7160,7 +7158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>967</v>
       </c>
@@ -7246,7 +7244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>612</v>
       </c>
@@ -7332,7 +7330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>960</v>
       </c>
@@ -7418,7 +7416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>398</v>
       </c>
@@ -7504,7 +7502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>960</v>
       </c>
@@ -7590,7 +7588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>1005</v>
       </c>
